--- a/app_detail.xlsx
+++ b/app_detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -156,6 +156,123 @@
   <si>
     <t xml:space="preserve">بوابة الويب لخدمات إنشاء معرف البريد
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಪೂರ್ವ ನೋಂದಣಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿಗಾಗಿ ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ನೋಂದಣಿ ಗ್ರಾಹಕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿಗಾಗಿ ಡೆಸ್ಕ್‌ಟಾಪ್ ಅಪ್ಲಿಕೇಶನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ನೋಂದಣಿ ಪ್ರೊಸೆಸರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ನಂತರದ ಪ್ರಕ್ರಿಯೆಗಾಗಿ ಅರ್ಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID ದೃಢೀಕರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೂರನೇ ವ್ಯಕ್ತಿಯ ಸೇವಾ ಪೂರೈಕೆದಾರರ ದೃಢೀಕರಣಕ್ಕಾಗಿ ಅರ್ಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID ನಿಯಂತ್ರಣ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಪ್ಲಿಕೇಶನ್‌ಗಳನ್ನು ಕಾನ್ಫಿಗರ್ ಮಾಡಲು ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ನಿವಾಸ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೋಸ್ಟ್ ID ಜನರೇಷನ್ ಸೇವೆಗಳಿಗಾಗಿ ವೆಬ್ ಪೋರ್ಟಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पूर्व-पंजीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पूर्व पंजीकरण के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पंजीकरण ग्राहक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण के लिए डेस्कटॉप आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> पंजीकरण प्रोसेसर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण के बाद की प्रक्रिया के लिए आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> आईडी प्रमाणीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">तृतीय पक्ष सेवा प्रदाता प्रमाणीकरण के लिए आवेदन</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> आईडी नियंत्रण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अनुप्रयोगों को कॉन्फ़िगर करने के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> निवासी पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पोस्ट आईडी जनरेशन सेवाओं के लिए वेब पोर्टल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> முன் பதிவு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முன் பதிவுகளுக்கான இணைய போர்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> பதிவு வாடிக்கையாளர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவுகளுக்கான டெஸ்க்டாப் பயன்பாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> பதிவு செயலி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவுக்குப் பிந்தைய செயல்முறைக்கான விண்ணப்பம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ஐடி அங்கீகாரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மூன்றாம் தரப்பு சேவை வழங்குநரின் அங்கீகாரத்திற்கான விண்ணப்பம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அடையாளக் கட்டுப்பாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பயன்பாடுகளை உள்ளமைப்பதற்கான இணைய போர்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">குடியுரிமை போர்ட்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">போஸ்ட் ஐடி உருவாக்கும் சேவைகளுக்கான இணைய போர்டல்</t>
   </si>
 </sst>
 </file>
@@ -246,7 +363,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,6 +392,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,8 +415,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,6 +752,312 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
